--- a/docs/Model.xlsx
+++ b/docs/Model.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rupisingh\Documents\SpringByRitika\expense_tracker\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\expense_tracker\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3BC8E01-23BC-44F2-8F9D-03A4FE5D96D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB44CC6-062E-40D6-81B0-023BE814EFB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BAD7B84B-E5F8-4342-B862-BDF0A489223C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>User</t>
   </si>
@@ -108,6 +100,9 @@
   </si>
   <si>
     <t>User(Dto-Object)</t>
+  </si>
+  <si>
+    <t>/forgotPassword</t>
   </si>
 </sst>
 </file>
@@ -534,7 +529,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -624,6 +619,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="G10" t="s">
         <v>21</v>
